--- a/folder_3/filetypes.xlsx
+++ b/folder_3/filetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonja\Desktop\MACHINE-LEARNING\DATASETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA33057-05CF-4AC9-918D-B6323817526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE4ACC8-EEC1-4632-8DF1-16925F3C9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9.6"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
@@ -596,7 +595,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
